--- a/docs/ValueSet-nursing-intervention-valueset.xlsx
+++ b/docs/ValueSet-nursing-intervention-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-23T02:33:16+00:00</t>
+    <t>2025-11-23T21:00:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-nursing-intervention-valueset.xlsx
+++ b/docs/ValueSet-nursing-intervention-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-23T21:00:20+00:00</t>
+    <t>2025-11-23T22:00:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-nursing-intervention-valueset.xlsx
+++ b/docs/ValueSet-nursing-intervention-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T00:15:25+00:00</t>
+    <t>2025-11-28T01:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-nursing-intervention-valueset.xlsx
+++ b/docs/ValueSet-nursing-intervention-valueset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,16 +48,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T01:24:36+00:00</t>
+    <t>2025-12-26T14:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,6 +75,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Value set for nursing interventions</t>
+  </si>
+  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -84,16 +90,25 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>concept</t>
-  </si>
-  <si>
-    <t>is-a</t>
+    <t>Concept</t>
   </si>
   <si>
     <t>71388002</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>225358003</t>
+  </si>
+  <si>
+    <t>Wound care</t>
+  </si>
+  <si>
+    <t>386373004</t>
+  </si>
+  <si>
+    <t>Nutrition therapy</t>
   </si>
   <si>
     <t>System URI</t>
@@ -295,54 +310,58 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -352,7 +371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -364,40 +383,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ValueSet-nursing-intervention-valueset.xlsx
+++ b/docs/ValueSet-nursing-intervention-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:13:58+00:00</t>
+    <t>2025-12-26T15:22:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-nursing-intervention-valueset.xlsx
+++ b/docs/ValueSet-nursing-intervention-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T15:22:58+00:00</t>
+    <t>2026-01-01T13:37:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
